--- a/data-raw/metadata/daily-info-environmental-data-metadata.xlsx
+++ b/data-raw/metadata/daily-info-environmental-data-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKeller\Desktop\Steelhead EDI\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/stanislaus-steelhead/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBAC61-3B9E-40E5-90F2-18B561363E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF365F96-B288-F14D-98A0-C78C3B1545FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -161,6 +161,51 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>Flow measured at site</t>
+  </si>
+  <si>
+    <t>Time at beginning of sampling</t>
+  </si>
+  <si>
+    <t>Time at end of sampling</t>
   </si>
 </sst>
 </file>
@@ -220,7 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -228,10 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,190 +660,503 @@
   <dimension ref="A1:AMG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1"/>
     <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3">
+        <v>185</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3">
+        <v>8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -833,25 +1189,25 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data-raw/metadata/daily-info-environmental-data-metadata.xlsx
+++ b/data-raw/metadata/daily-info-environmental-data-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/stanislaus-steelhead/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF365F96-B288-F14D-98A0-C78C3B1545FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF65900-FFAC-0C47-869D-500357E55068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t>Water temperature at end of day</t>
   </si>
   <si>
-    <t>Secchi disk depth</t>
-  </si>
-  <si>
     <t>Initials of crew who did sampling</t>
   </si>
   <si>
@@ -199,13 +196,16 @@
     <t>2022-04-27</t>
   </si>
   <si>
-    <t>Flow measured at site</t>
-  </si>
-  <si>
-    <t>Time at beginning of sampling</t>
-  </si>
-  <si>
-    <t>Time at end of sampling</t>
+    <t>River flow from a gauging station</t>
+  </si>
+  <si>
+    <t>Time when the survey begins</t>
+  </si>
+  <si>
+    <t>Time when the survey ends</t>
+  </si>
+  <si>
+    <t>Secchi disk depth, measured in feet</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:AMG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,27 +730,27 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -761,13 +761,13 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -786,13 +786,13 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -811,13 +811,13 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -833,16 +833,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -858,16 +858,16 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -883,16 +883,16 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -933,16 +933,16 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
@@ -958,25 +958,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3"/>
@@ -993,16 +993,16 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1018,16 +1018,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1043,16 +1043,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1071,22 +1071,22 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="3"/>
@@ -1106,22 +1106,22 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="3"/>
@@ -1138,16 +1138,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
